--- a/SwitchProcessingTime_MHasan.xlsx
+++ b/SwitchProcessingTime_MHasan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="5060" windowWidth="14380" windowHeight="13320" activeTab="1"/>
+    <workbookView xWindow="20700" yWindow="5060" windowWidth="14380" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="Final Data" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Processing time in the switch(us)</t>
   </si>
@@ -48,20 +48,14 @@
     <t>Trace 1024 Byte</t>
   </si>
   <si>
-    <t>Put all 1024 in this col</t>
-  </si>
-  <si>
-    <t>Put all 512 in the coloums below</t>
-  </si>
-  <si>
-    <t>(put all of 400 byte trace in the columns below (10, 100, 1000 ms etc)</t>
+    <t>WCET (us)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +68,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -112,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -457,7 +459,7 @@
         <v>400</v>
       </c>
       <c r="H8" s="1">
-        <v>61.949599999999997</v>
+        <v>285.92599999999999</v>
       </c>
     </row>
     <row r="9" spans="7:8" ht="19" x14ac:dyDescent="0.2">
@@ -465,7 +467,7 @@
         <v>512</v>
       </c>
       <c r="H9" s="1">
-        <v>150.78</v>
+        <v>143.49199999999999</v>
       </c>
     </row>
     <row r="10" spans="7:8" ht="19" x14ac:dyDescent="0.2">
@@ -473,7 +475,7 @@
         <v>1024</v>
       </c>
       <c r="H10" s="1">
-        <v>317.93</v>
+        <v>971.57399999999996</v>
       </c>
     </row>
   </sheetData>
@@ -484,39 +486,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>285926</v>
+      </c>
+      <c r="C2">
+        <v>63421</v>
+      </c>
+      <c r="D2">
+        <v>971574</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>370835</v>
+      </c>
+      <c r="C3">
+        <v>77846</v>
+      </c>
+      <c r="D3">
+        <v>1548252</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>246539</v>
+      </c>
+      <c r="C4">
+        <v>208590</v>
+      </c>
+      <c r="D4">
+        <v>617205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>261023</v>
+      </c>
+      <c r="C5">
+        <v>307744</v>
+      </c>
+      <c r="D5">
+        <v>66526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>483754</v>
+      </c>
+      <c r="C6">
+        <v>151062</v>
+      </c>
+      <c r="D6">
+        <v>1472383</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>313186</v>
+      </c>
+      <c r="C7">
+        <v>344590</v>
+      </c>
+      <c r="D7">
+        <v>287695</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>215806</v>
+      </c>
+      <c r="C8">
+        <v>709052</v>
+      </c>
+      <c r="D8">
+        <v>1024310</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>180826</v>
+      </c>
+      <c r="C9">
+        <v>769732</v>
+      </c>
+      <c r="D9">
+        <v>120482</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>140166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>248516</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1019338</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>493204</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>143492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(B2,B9)/1000</f>
+        <v>285.92599999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <f>MAX(C2, C14)/1000</f>
+        <v>143.49199999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <f>MAX(D2,D9)/1000</f>
+        <v>971.57399999999996</v>
       </c>
     </row>
   </sheetData>
